--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="481">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1467,6 +1467,9 @@
   </si>
   <si>
     <t>Automation5415!</t>
+  </si>
+  <si>
+    <t>Automation5412!</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="732">
+  <fills count="734">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5147,8 +5150,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="728">
+  <borders count="730">
     <border>
       <left/>
       <right/>
@@ -7770,6 +7783,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7778,7 +7798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="383">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8160,7 +8180,8 @@
     <xf applyBorder="true" applyFill="true" borderId="721" fillId="725" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="723" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="725" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="731" borderId="727" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="727" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="733" borderId="729" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8670,8 +8691,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="381" t="s">
-        <v>479</v>
+      <c r="F7" s="382" t="s">
+        <v>480</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="482">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1470,6 +1470,9 @@
   </si>
   <si>
     <t>Automation5412!</t>
+  </si>
+  <si>
+    <t>Automation6885!</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1496,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="734">
+  <fills count="736">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5160,8 +5163,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="730">
+  <borders count="732">
     <border>
       <left/>
       <right/>
@@ -7790,6 +7803,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7798,7 +7818,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="384">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8181,7 +8201,8 @@
     <xf applyBorder="true" applyFill="true" borderId="723" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="725" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="727" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="733" borderId="729" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="729" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="735" borderId="731" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8691,8 +8712,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="382" t="s">
-        <v>480</v>
+      <c r="F7" s="383" t="s">
+        <v>481</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="485">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1473,6 +1473,15 @@
   </si>
   <si>
     <t>Automation6885!</t>
+  </si>
+  <si>
+    <t>Automation3605!</t>
+  </si>
+  <si>
+    <t>Automation6818!</t>
+  </si>
+  <si>
+    <t>Automation3688!</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1505,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="736">
+  <fills count="742">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5173,8 +5182,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="732">
+  <borders count="738">
     <border>
       <left/>
       <right/>
@@ -7810,6 +7849,27 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7818,7 +7878,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="387">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8202,7 +8262,10 @@
     <xf applyBorder="true" applyFill="true" borderId="725" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="727" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="729" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="735" borderId="731" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="731" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="733" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="735" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="741" borderId="737" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8712,8 +8775,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="383" t="s">
-        <v>481</v>
+      <c r="F7" s="386" t="s">
+        <v>484</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="486">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1482,6 +1482,9 @@
   </si>
   <si>
     <t>Automation3688!</t>
+  </si>
+  <si>
+    <t>Automation2956!</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1508,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="742">
+  <fills count="744">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5212,8 +5215,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="738">
+  <borders count="740">
     <border>
       <left/>
       <right/>
@@ -7870,6 +7883,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7878,7 +7898,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="388">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8265,7 +8285,8 @@
     <xf applyBorder="true" applyFill="true" borderId="731" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="733" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="735" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="741" borderId="737" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="737" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="743" borderId="739" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8775,8 +8796,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="386" t="s">
-        <v>484</v>
+      <c r="F7" s="387" t="s">
+        <v>485</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="487">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1485,6 +1485,9 @@
   </si>
   <si>
     <t>Automation2956!</t>
+  </si>
+  <si>
+    <t>SeleniumCJik@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1511,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="744">
+  <fills count="746">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5225,8 +5228,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="740">
+  <borders count="742">
     <border>
       <left/>
       <right/>
@@ -7890,6 +7903,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7898,7 +7918,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="389">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8286,7 +8306,8 @@
     <xf applyBorder="true" applyFill="true" borderId="733" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="735" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="737" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="743" borderId="739" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="739" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="745" borderId="741" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8633,8 +8654,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="366" t="s">
-        <v>464</v>
+      <c r="E2" s="388" t="s">
+        <v>486</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="490">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1488,6 +1488,15 @@
   </si>
   <si>
     <t>SeleniumCJik@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automation6209!</t>
+  </si>
+  <si>
+    <t>Automation8163!</t>
+  </si>
+  <si>
+    <t>Automation8868!</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1520,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="746">
+  <fills count="752">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5238,8 +5247,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="742">
+  <borders count="748">
     <border>
       <left/>
       <right/>
@@ -7910,6 +7949,27 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7918,7 +7978,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="392">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8307,7 +8367,10 @@
     <xf applyBorder="true" applyFill="true" borderId="735" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="737" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="739" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="745" borderId="741" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="741" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="743" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="745" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="751" borderId="747" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8817,8 +8880,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="387" t="s">
-        <v>485</v>
+      <c r="F7" s="391" t="s">
+        <v>489</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="491">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>Automation8868!</t>
+  </si>
+  <si>
+    <t>Automation5140!</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="752">
+  <fills count="754">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5277,8 +5280,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="748">
+  <borders count="750">
     <border>
       <left/>
       <right/>
@@ -7970,6 +7983,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7978,7 +7998,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="393">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8370,7 +8390,8 @@
     <xf applyBorder="true" applyFill="true" borderId="741" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="743" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="745" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="751" borderId="747" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="747" fillId="751" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="753" borderId="749" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8880,8 +8901,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="391" t="s">
-        <v>489</v>
+      <c r="F7" s="392" t="s">
+        <v>490</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="501">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1500,6 +1500,36 @@
   </si>
   <si>
     <t>Automation5140!</t>
+  </si>
+  <si>
+    <t>SeleniumTtld@mailinator.com</t>
+  </si>
+  <si>
+    <t>51539206</t>
+  </si>
+  <si>
+    <t>SeleniumHvWa@mailinator.com</t>
+  </si>
+  <si>
+    <t>51539209</t>
+  </si>
+  <si>
+    <t>SeleniumQlKv@mailinator.com</t>
+  </si>
+  <si>
+    <t>51539210</t>
+  </si>
+  <si>
+    <t>SeleniumutKh@mailinator.com</t>
+  </si>
+  <si>
+    <t>51539213</t>
+  </si>
+  <si>
+    <t>SeleniumhjBX@mailinator.com</t>
+  </si>
+  <si>
+    <t>51539214</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1553,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="754">
+  <fills count="774">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5290,8 +5320,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="750">
+  <borders count="770">
     <border>
       <left/>
       <right/>
@@ -7990,6 +8120,76 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7998,7 +8198,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="403">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8391,7 +8591,17 @@
     <xf applyBorder="true" applyFill="true" borderId="743" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="745" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="747" fillId="751" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="753" borderId="749" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="749" fillId="753" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="751" fillId="755" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="753" fillId="757" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="755" fillId="759" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="757" fillId="761" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="759" fillId="763" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="761" fillId="765" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="763" fillId="767" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="765" fillId="769" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="767" fillId="771" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="773" borderId="769" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8685,7 +8895,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="29.76953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.2578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -8738,8 +8948,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="388" t="s">
-        <v>486</v>
+      <c r="E2" s="399" t="s">
+        <v>497</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -8770,8 +8980,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="368" t="s">
-        <v>466</v>
+      <c r="E3" s="401" t="s">
+        <v>499</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -8802,8 +9012,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="370" t="s">
-        <v>468</v>
+      <c r="E4" s="393" t="s">
+        <v>491</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -8834,8 +9044,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="372" t="s">
-        <v>470</v>
+      <c r="E5" s="395" t="s">
+        <v>493</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -8866,8 +9076,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="374" t="s">
-        <v>472</v>
+      <c r="E6" s="397" t="s">
+        <v>495</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -9235,8 +9445,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="367" t="s">
-        <v>465</v>
+      <c r="U2" s="400" t="s">
+        <v>498</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -9303,8 +9513,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="369" t="s">
-        <v>467</v>
+      <c r="U3" s="402" t="s">
+        <v>500</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -9377,8 +9587,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="371" t="s">
-        <v>469</v>
+      <c r="U4" s="394" t="s">
+        <v>492</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -9445,8 +9655,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="373" t="s">
-        <v>471</v>
+      <c r="U5" s="396" t="s">
+        <v>494</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -9513,8 +9723,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="375" t="s">
-        <v>473</v>
+      <c r="U6" s="398" t="s">
+        <v>496</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="512">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1530,6 +1530,39 @@
   </si>
   <si>
     <t>51539214</t>
+  </si>
+  <si>
+    <t>SeleniumeASM@mailinator.com</t>
+  </si>
+  <si>
+    <t>51540204</t>
+  </si>
+  <si>
+    <t>SeleniumarfK@mailinator.com</t>
+  </si>
+  <si>
+    <t>51540206</t>
+  </si>
+  <si>
+    <t>SeleniumFtOw@mailinator.com</t>
+  </si>
+  <si>
+    <t>51540209</t>
+  </si>
+  <si>
+    <t>SeleniumsYvZ@mailinator.com</t>
+  </si>
+  <si>
+    <t>51540211</t>
+  </si>
+  <si>
+    <t>SeleniumusLt@mailinator.com</t>
+  </si>
+  <si>
+    <t>51540216</t>
+  </si>
+  <si>
+    <t>Automation9997!</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1586,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="774">
+  <fills count="796">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5420,8 +5453,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="770">
+  <borders count="792">
     <border>
       <left/>
       <right/>
@@ -8190,6 +8333,83 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8198,7 +8418,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="414">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8601,7 +8821,18 @@
     <xf applyBorder="true" applyFill="true" borderId="763" fillId="767" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="765" fillId="769" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="767" fillId="771" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="773" borderId="769" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="769" fillId="773" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="771" fillId="775" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="773" fillId="777" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="775" fillId="779" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="777" fillId="781" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="779" fillId="783" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="781" fillId="785" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="783" fillId="787" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="785" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="787" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="789" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="795" borderId="791" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8895,7 +9126,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="30.2578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.14453125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
@@ -8948,8 +9179,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="399" t="s">
-        <v>497</v>
+      <c r="E2" s="403" t="s">
+        <v>501</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -8980,8 +9211,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="401" t="s">
-        <v>499</v>
+      <c r="E3" s="405" t="s">
+        <v>503</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -9012,8 +9243,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="393" t="s">
-        <v>491</v>
+      <c r="E4" s="407" t="s">
+        <v>505</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -9044,8 +9275,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="395" t="s">
-        <v>493</v>
+      <c r="E5" s="409" t="s">
+        <v>507</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -9076,8 +9307,8 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="397" t="s">
-        <v>495</v>
+      <c r="E6" s="411" t="s">
+        <v>509</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -9111,8 +9342,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="392" t="s">
-        <v>490</v>
+      <c r="F7" s="413" t="s">
+        <v>511</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
@@ -9445,8 +9676,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="400" t="s">
-        <v>498</v>
+      <c r="U2" s="404" t="s">
+        <v>502</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -9513,8 +9744,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="402" t="s">
-        <v>500</v>
+      <c r="U3" s="406" t="s">
+        <v>504</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -9587,8 +9818,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="394" t="s">
-        <v>492</v>
+      <c r="U4" s="408" t="s">
+        <v>506</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -9655,8 +9886,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="396" t="s">
-        <v>494</v>
+      <c r="U5" s="410" t="s">
+        <v>508</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
@@ -9723,8 +9954,8 @@
       <c r="T6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="398" t="s">
-        <v>496</v>
+      <c r="U6" s="412" t="s">
+        <v>510</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10" t="s">

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="514">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1563,6 +1563,12 @@
   </si>
   <si>
     <t>Automation9997!</t>
+  </si>
+  <si>
+    <t>Automation5070!</t>
+  </si>
+  <si>
+    <t>Automation6093!</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1592,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="796">
+  <fills count="800">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5563,8 +5569,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="792">
+  <borders count="796">
     <border>
       <left/>
       <right/>
@@ -8410,6 +8436,20 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8418,7 +8458,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="416">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8832,7 +8872,9 @@
     <xf applyBorder="true" applyFill="true" borderId="785" fillId="789" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="787" fillId="791" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="789" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="795" borderId="791" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="791" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="793" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="799" borderId="795" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -9342,8 +9384,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="413" t="s">
-        <v>511</v>
+      <c r="F7" s="415" t="s">
+        <v>513</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="516">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1569,6 +1569,12 @@
   </si>
   <si>
     <t>Automation6093!</t>
+  </si>
+  <si>
+    <t>Automation5332!</t>
+  </si>
+  <si>
+    <t>Automation9456!</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1598,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="800">
+  <fills count="804">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5589,8 +5595,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="796">
+  <borders count="800">
     <border>
       <left/>
       <right/>
@@ -8450,6 +8476,20 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8458,7 +8498,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="416">
+  <cellXfs count="418">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8874,7 +8914,9 @@
     <xf applyBorder="true" applyFill="true" borderId="789" fillId="793" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="791" fillId="795" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="793" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="799" borderId="795" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="795" fillId="799" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="797" fillId="801" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="803" borderId="799" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -9384,8 +9426,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="415" t="s">
-        <v>513</v>
+      <c r="F7" s="417" t="s">
+        <v>515</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="523">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1575,6 +1575,27 @@
   </si>
   <si>
     <t>Automation9456!</t>
+  </si>
+  <si>
+    <t>Automation6348!</t>
+  </si>
+  <si>
+    <t>Automation8439!</t>
+  </si>
+  <si>
+    <t>Automation6561!</t>
+  </si>
+  <si>
+    <t>Automation4030!</t>
+  </si>
+  <si>
+    <t>Automation8686!</t>
+  </si>
+  <si>
+    <t>Automation4753!</t>
+  </si>
+  <si>
+    <t>Automation8332!</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1619,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="804">
+  <fills count="818">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5615,8 +5636,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="800">
+  <borders count="814">
     <border>
       <left/>
       <right/>
@@ -8490,6 +8581,55 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8498,7 +8638,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="425">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8916,7 +9056,14 @@
     <xf applyBorder="true" applyFill="true" borderId="793" fillId="797" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="795" fillId="799" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="797" fillId="801" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="803" borderId="799" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="799" fillId="803" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="801" fillId="805" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="803" fillId="807" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="805" fillId="809" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="807" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="809" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="811" fillId="815" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="817" borderId="813" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -9426,8 +9573,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="417" t="s">
-        <v>515</v>
+      <c r="F7" s="424" t="s">
+        <v>522</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="526">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1596,6 +1596,15 @@
   </si>
   <si>
     <t>Automation8332!</t>
+  </si>
+  <si>
+    <t>Automation4854!</t>
+  </si>
+  <si>
+    <t>Automation8264!</t>
+  </si>
+  <si>
+    <t>Automation9091!</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1628,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="818">
+  <fills count="824">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5706,8 +5715,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="814">
+  <borders count="820">
     <border>
       <left/>
       <right/>
@@ -8630,6 +8669,27 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8638,7 +8698,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="425">
+  <cellXfs count="428">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -9063,7 +9123,10 @@
     <xf applyBorder="true" applyFill="true" borderId="807" fillId="811" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="809" fillId="813" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="811" fillId="815" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="817" borderId="813" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="813" fillId="817" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="815" fillId="819" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="817" fillId="821" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="823" borderId="819" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -9573,8 +9636,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="424" t="s">
-        <v>522</v>
+      <c r="F7" s="427" t="s">
+        <v>525</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>

--- a/testdata/FCfiles/qa/SignUp.xlsx
+++ b/testdata/FCfiles/qa/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="528">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>Automation9091!</t>
+  </si>
+  <si>
+    <t>Automation9993!</t>
+  </si>
+  <si>
+    <t>Automation2500!</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1634,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="824">
+  <fills count="828">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5745,8 +5751,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="820">
+  <borders count="824">
     <border>
       <left/>
       <right/>
@@ -8690,6 +8716,20 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8698,7 +8738,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="430">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -9126,7 +9166,9 @@
     <xf applyBorder="true" applyFill="true" borderId="813" fillId="817" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="815" fillId="819" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="817" fillId="821" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="823" borderId="819" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="819" fillId="823" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="821" fillId="825" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="827" borderId="823" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -9636,8 +9678,8 @@
       <c r="E7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="427" t="s">
-        <v>525</v>
+      <c r="F7" s="429" t="s">
+        <v>527</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>89</v>
